--- a/Code/Results/Cases/Case_2_64/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_64/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.97030003892394</v>
+        <v>13.44423134029726</v>
       </c>
       <c r="C2">
-        <v>6.429578625734951</v>
+        <v>8.966419816057178</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.207429853210433</v>
+        <v>12.13397574667697</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.107849024258103</v>
+        <v>3.663921409850964</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.72909477547722</v>
+        <v>9.805396390516554</v>
       </c>
       <c r="L2">
-        <v>6.77480519194774</v>
+        <v>9.680989646931536</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.98776273073408</v>
+        <v>19.82714434424692</v>
       </c>
       <c r="O2">
-        <v>16.12130414814908</v>
+        <v>25.36111982046866</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.12634391661654</v>
+        <v>13.22973205327845</v>
       </c>
       <c r="C3">
-        <v>6.444604084507817</v>
+        <v>8.975085404275843</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.060720910177617</v>
+        <v>12.14133167830885</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.11231945958644</v>
+        <v>3.66560950315069</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.08337839171492</v>
+        <v>9.657613798352548</v>
       </c>
       <c r="L3">
-        <v>6.577278648087939</v>
+        <v>9.667816930363271</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.18910917079579</v>
+        <v>19.88856930268932</v>
       </c>
       <c r="O3">
-        <v>16.22074593478833</v>
+        <v>25.45260791865534</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.58395616499261</v>
+        <v>13.09884643850672</v>
       </c>
       <c r="C4">
-        <v>6.454837326689346</v>
+        <v>8.980879977038763</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.974309668062947</v>
+        <v>12.14811255993619</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.11515120173089</v>
+        <v>3.666701200892106</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.665266843141742</v>
+        <v>9.567302026380577</v>
       </c>
       <c r="L4">
-        <v>6.456341547404961</v>
+        <v>9.661362693579383</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.31567208905971</v>
+        <v>19.92808527243913</v>
       </c>
       <c r="O4">
-        <v>16.29442843164767</v>
+        <v>25.51357946385107</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.35699021258102</v>
+        <v>13.04578376993756</v>
       </c>
       <c r="C5">
-        <v>6.459259293919481</v>
+        <v>8.983360844958897</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.940046018550895</v>
+        <v>12.15144569349812</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.116327455482355</v>
+        <v>3.667160000001231</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.489465190943916</v>
+        <v>9.530650969242799</v>
       </c>
       <c r="L5">
-        <v>6.407213902914813</v>
+        <v>9.659145736080189</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.36800547360725</v>
+        <v>19.94464249567014</v>
       </c>
       <c r="O5">
-        <v>16.32749916902267</v>
+        <v>25.53963089766154</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.31894901967564</v>
+        <v>13.03699132938315</v>
       </c>
       <c r="C6">
-        <v>6.460008726114894</v>
+        <v>8.983780021662815</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.93441466401688</v>
+        <v>12.15203358688532</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.116524130963555</v>
+        <v>3.667237025435435</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.459947167092135</v>
+        <v>9.524575548421595</v>
       </c>
       <c r="L6">
-        <v>6.399067727979569</v>
+        <v>9.658802631470692</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.37674173722018</v>
+        <v>19.94741927804918</v>
       </c>
       <c r="O6">
-        <v>16.33317070125214</v>
+        <v>25.54402946038891</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.58091904769619</v>
+        <v>13.09812961542908</v>
       </c>
       <c r="C7">
-        <v>6.454895945128962</v>
+        <v>8.980912950407834</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.973843697463884</v>
+        <v>12.14815520385745</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.115166974242033</v>
+        <v>3.666707331985452</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.662917817214055</v>
+        <v>9.566807064527145</v>
       </c>
       <c r="L7">
-        <v>6.455678273689622</v>
+        <v>9.661331118989665</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.31637478069723</v>
+        <v>19.92830672837815</v>
       </c>
       <c r="O7">
-        <v>16.29486227671486</v>
+        <v>25.51392592523742</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.68440182605443</v>
+        <v>13.37014333050569</v>
       </c>
       <c r="C8">
-        <v>6.434549341189618</v>
+        <v>8.969309584695427</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.156100154405951</v>
+        <v>12.13604246517948</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.109372676007741</v>
+        <v>3.664492032959779</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.51095341440835</v>
+        <v>9.754378758633685</v>
       </c>
       <c r="L8">
-        <v>6.706666478081267</v>
+        <v>9.676110070191136</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.05658995806091</v>
+        <v>19.84795071205416</v>
       </c>
       <c r="O8">
-        <v>16.15289180838224</v>
+        <v>25.39166840439112</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.68915101723049</v>
+        <v>13.90706020814482</v>
       </c>
       <c r="C9">
-        <v>6.40271832121689</v>
+        <v>8.950298858805583</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.54132946158977</v>
+        <v>12.13022707364345</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.098678004560591</v>
+        <v>3.660583896476795</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.00179799490009</v>
+        <v>10.12366755383578</v>
       </c>
       <c r="L9">
-        <v>7.198774937985052</v>
+        <v>9.717942006504439</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.56949793584904</v>
+        <v>19.70460021968191</v>
       </c>
       <c r="O9">
-        <v>15.98069730006778</v>
+        <v>25.19004670135918</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.12268311254785</v>
+        <v>14.29973486799456</v>
       </c>
       <c r="C10">
-        <v>6.384362983751752</v>
+        <v>8.938591603483975</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.839535276546133</v>
+        <v>12.13684072461828</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.091196389643885</v>
+        <v>3.657975700330422</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.99224133072203</v>
+        <v>10.39333471308695</v>
       </c>
       <c r="L10">
-        <v>7.556839434152991</v>
+        <v>9.756342715726884</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.22386264251387</v>
+        <v>19.60786723400752</v>
       </c>
       <c r="O10">
-        <v>15.92750020775262</v>
+        <v>25.06523720516713</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.74080083998529</v>
+        <v>14.47718181049824</v>
       </c>
       <c r="C11">
-        <v>6.377132497056194</v>
+        <v>8.933751698836563</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.978110685879592</v>
+        <v>12.14219845734109</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.087867060879955</v>
+        <v>3.656845718019391</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.42021120127576</v>
+        <v>10.51513619437518</v>
       </c>
       <c r="L11">
-        <v>7.718352816493333</v>
+        <v>9.775435984429919</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.06895588777582</v>
+        <v>19.56570690181917</v>
       </c>
       <c r="O11">
-        <v>15.92113711292373</v>
+        <v>25.01353925808382</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.97003337454042</v>
+        <v>14.54414249121511</v>
       </c>
       <c r="C12">
-        <v>6.374557992962606</v>
+        <v>8.931988427671051</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.030974447065773</v>
+        <v>12.14456343813958</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.086616347665422</v>
+        <v>3.656425903926239</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.57904419486235</v>
+        <v>10.56109240378893</v>
       </c>
       <c r="L12">
-        <v>7.779272114719722</v>
+        <v>9.782895819969587</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.01060299563898</v>
+        <v>19.55000567867084</v>
       </c>
       <c r="O12">
-        <v>15.92145479031709</v>
+        <v>24.99469431807761</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.92087820376255</v>
+        <v>14.52973274473445</v>
       </c>
       <c r="C13">
-        <v>6.375105142796238</v>
+        <v>8.932365094545041</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.019572507390796</v>
+        <v>12.14403917722617</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.086885275321322</v>
+        <v>3.656515959404194</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.54497997742455</v>
+        <v>10.55120300777826</v>
       </c>
       <c r="L13">
-        <v>7.766163484770612</v>
+        <v>9.781279064201973</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.0231571359162</v>
+        <v>19.55337549615906</v>
       </c>
       <c r="O13">
-        <v>15.92126246395527</v>
+        <v>24.99872033312767</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.75975652395832</v>
+        <v>14.48269576843666</v>
       </c>
       <c r="C14">
-        <v>6.376917398414779</v>
+        <v>8.933605242716499</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.982452213092126</v>
+        <v>12.14238629975818</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.087763966614077</v>
+        <v>3.656811017833586</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.43334309790118</v>
+        <v>10.51892062877226</v>
       </c>
       <c r="L14">
-        <v>7.723369777022208</v>
+        <v>9.776045131192824</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06414917088608</v>
+        <v>19.56440986893266</v>
       </c>
       <c r="O14">
-        <v>15.92110765074039</v>
+        <v>25.01197419469481</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.66043680683372</v>
+        <v>14.45385183702013</v>
       </c>
       <c r="C15">
-        <v>6.378048832313804</v>
+        <v>8.934373909011098</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.959764614006341</v>
+        <v>12.14141758400796</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.08830347763236</v>
+        <v>3.656992801488423</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.36454227973217</v>
+        <v>10.49912372284374</v>
       </c>
       <c r="L15">
-        <v>7.697124603543094</v>
+        <v>9.772868978045167</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.08929711029197</v>
+        <v>19.57120308388792</v>
       </c>
       <c r="O15">
-        <v>15.92137285648047</v>
+        <v>25.0201879381905</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.08160802942164</v>
+        <v>14.28810891527522</v>
       </c>
       <c r="C16">
-        <v>6.384858252290456</v>
+        <v>8.938917647110713</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.830535065337214</v>
+        <v>12.13653771660309</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.091415407645306</v>
+        <v>3.658050680913246</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.96381941048554</v>
+        <v>10.38535353246765</v>
       </c>
       <c r="L16">
-        <v>7.546252563537455</v>
+        <v>9.75512728171808</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.23403063716838</v>
+        <v>19.61065951517022</v>
       </c>
       <c r="O16">
-        <v>15.92828878332955</v>
+        <v>25.06871812331263</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.71784424097495</v>
+        <v>14.18608132042714</v>
       </c>
       <c r="C17">
-        <v>6.389324075906217</v>
+        <v>8.941829248275713</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.751981823057745</v>
+        <v>12.1341446261789</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.093343021506473</v>
+        <v>3.658714098742006</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.71221498109061</v>
+        <v>10.31530558105349</v>
       </c>
       <c r="L17">
-        <v>7.453312155836092</v>
+        <v>9.744656667251412</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.32339636429252</v>
+        <v>19.63533620139749</v>
       </c>
       <c r="O17">
-        <v>15.93721445815865</v>
+        <v>25.09979174319633</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.50541298934036</v>
+        <v>14.12729012526843</v>
       </c>
       <c r="C18">
-        <v>6.391997902517994</v>
+        <v>8.943549670055527</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.707076743858851</v>
+        <v>12.13298941208743</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.094458747693698</v>
+        <v>3.659100999402662</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.56537127397041</v>
+        <v>10.27493624577866</v>
       </c>
       <c r="L18">
-        <v>7.399728479596564</v>
+        <v>9.73878741584541</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.37501768265172</v>
+        <v>19.64970321350471</v>
       </c>
       <c r="O18">
-        <v>15.94401721875761</v>
+        <v>25.11814238347641</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.43293551879141</v>
+        <v>14.10736796253965</v>
       </c>
       <c r="C19">
-        <v>6.392921208737041</v>
+        <v>8.944140043158397</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.691921163651415</v>
+        <v>12.13263632007497</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.094837736411546</v>
+        <v>3.659232912269347</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.51528664656593</v>
+        <v>10.26125551743118</v>
       </c>
       <c r="L19">
-        <v>7.381565656096102</v>
+        <v>9.736826612427848</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.39253445533118</v>
+        <v>19.65459749517295</v>
       </c>
       <c r="O19">
-        <v>15.94660225935903</v>
+        <v>25.12443762637491</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.7568987264416</v>
+        <v>14.19695394644563</v>
       </c>
       <c r="C20">
-        <v>6.388837775462708</v>
+        <v>8.941514571453579</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.760315550168873</v>
+        <v>12.13437648990539</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.093137102229735</v>
+        <v>3.658642926435427</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.73921877356622</v>
+        <v>10.3227708537319</v>
       </c>
       <c r="L20">
-        <v>7.463219290413675</v>
+        <v>9.745755457687784</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.31386060054822</v>
+        <v>19.63269136406951</v>
       </c>
       <c r="O20">
-        <v>15.93609040773999</v>
+        <v>25.09643442864646</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.80721264866309</v>
+        <v>14.49651853735697</v>
       </c>
       <c r="C21">
-        <v>6.376380635622055</v>
+        <v>8.933239097906021</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.993345049643981</v>
+        <v>12.14286268217031</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.087505606591073</v>
+        <v>3.656724132885305</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.46622104515258</v>
+        <v>10.52840761540905</v>
       </c>
       <c r="L21">
-        <v>7.735946232149246</v>
+        <v>9.777576265118981</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.05210071198563</v>
+        <v>19.56116165121279</v>
       </c>
       <c r="O21">
-        <v>15.92107779909663</v>
+        <v>25.00806133619305</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.4654969973388</v>
+        <v>14.69090573880504</v>
       </c>
       <c r="C22">
-        <v>6.369193660961035</v>
+        <v>8.928235505260952</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.147893061076234</v>
+        <v>12.1503671440467</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.08388325189966</v>
+        <v>3.655517202145496</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.92254446532431</v>
+        <v>10.66180925090377</v>
       </c>
       <c r="L22">
-        <v>7.912759975167086</v>
+        <v>9.799709433895016</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.88280071585064</v>
+        <v>19.51595098360948</v>
       </c>
       <c r="O22">
-        <v>15.9272397673278</v>
+        <v>24.95457153449928</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.11671598998864</v>
+        <v>14.58730594753765</v>
       </c>
       <c r="C23">
-        <v>6.372941249564584</v>
+        <v>8.930869086338991</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.065212002337896</v>
+        <v>12.14618330653797</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.085811465748156</v>
+        <v>3.656157065810643</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.68071035466628</v>
+        <v>10.59071469233229</v>
       </c>
       <c r="L23">
-        <v>7.818535254690727</v>
+        <v>9.787775642052475</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.9730063181435</v>
+        <v>19.53994041629375</v>
       </c>
       <c r="O23">
-        <v>15.92243511003975</v>
+        <v>24.9827290624802</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.73925247206597</v>
+        <v>14.19203884518529</v>
       </c>
       <c r="C24">
-        <v>6.389057300779685</v>
+        <v>8.941656691969897</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.756547071629289</v>
+        <v>12.13427097703652</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.093230174879339</v>
+        <v>3.658675086322128</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.727017190919</v>
+        <v>10.31939610546063</v>
       </c>
       <c r="L24">
-        <v>7.458740741709857</v>
+        <v>9.745258225619157</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.31817095799571</v>
+        <v>19.63388653405962</v>
       </c>
       <c r="O24">
-        <v>15.93659339756632</v>
+        <v>25.09795075680209</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.14106949928819</v>
+        <v>13.76184708001262</v>
       </c>
       <c r="C25">
-        <v>6.410454637581483</v>
+        <v>8.955043297960549</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.43431779877387</v>
+        <v>12.12988413952323</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.101502837472904</v>
+        <v>3.661594750400462</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.6169377008125</v>
+        <v>10.02387443531649</v>
       </c>
       <c r="L25">
-        <v>7.066029204620629</v>
+        <v>9.705265833611969</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.69901646823793</v>
+        <v>19.74186619972813</v>
       </c>
       <c r="O25">
-        <v>16.01504148562866</v>
+        <v>25.24050086265823</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_64/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_64/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.44423134029726</v>
+        <v>13.97030003892399</v>
       </c>
       <c r="C2">
-        <v>8.966419816057178</v>
+        <v>6.429578625735205</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.13397574667697</v>
+        <v>8.207429853210476</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.663921409850964</v>
+        <v>2.107849024257967</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.805396390516554</v>
+        <v>10.72909477547718</v>
       </c>
       <c r="L2">
-        <v>9.680989646931536</v>
+        <v>6.774805191947824</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.82714434424692</v>
+        <v>12.98776273073415</v>
       </c>
       <c r="O2">
-        <v>25.36111982046866</v>
+        <v>16.12130414814926</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.22973205327845</v>
+        <v>13.12634391661654</v>
       </c>
       <c r="C3">
-        <v>8.975085404275843</v>
+        <v>6.444604084508085</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.14133167830885</v>
+        <v>8.060720910177666</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.66560950315069</v>
+        <v>2.112319459586306</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.657613798352548</v>
+        <v>10.08337839171495</v>
       </c>
       <c r="L3">
-        <v>9.667816930363271</v>
+        <v>6.577278648087921</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.88856930268932</v>
+        <v>13.18910917079575</v>
       </c>
       <c r="O3">
-        <v>25.45260791865534</v>
+        <v>16.22074593478824</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.09884643850672</v>
+        <v>12.58395616499258</v>
       </c>
       <c r="C4">
-        <v>8.980879977038763</v>
+        <v>6.454837326689207</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.14811255993619</v>
+        <v>7.974309668062658</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.666701200892106</v>
+        <v>2.115151201730623</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.567302026380577</v>
+        <v>9.665266843141866</v>
       </c>
       <c r="L4">
-        <v>9.661362693579383</v>
+        <v>6.456341547404904</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.92808527243913</v>
+        <v>13.31567208905958</v>
       </c>
       <c r="O4">
-        <v>25.51357946385107</v>
+        <v>16.29442843164738</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.04578376993756</v>
+        <v>12.35699021258105</v>
       </c>
       <c r="C5">
-        <v>8.983360844958897</v>
+        <v>6.459259293919478</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.15144569349812</v>
+        <v>7.940046018550897</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.667160000001231</v>
+        <v>2.116327455482354</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.530650969242799</v>
+        <v>9.489465190943919</v>
       </c>
       <c r="L5">
-        <v>9.659145736080189</v>
+        <v>6.407213902914791</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.94464249567014</v>
+        <v>13.36800547360735</v>
       </c>
       <c r="O5">
-        <v>25.53963089766154</v>
+        <v>16.32749916902275</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.03699132938315</v>
+        <v>12.31894901967565</v>
       </c>
       <c r="C6">
-        <v>8.983780021662815</v>
+        <v>6.460008726114887</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.15203358688532</v>
+        <v>7.934414664016972</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.667237025435435</v>
+        <v>2.11652413096369</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.524575548421595</v>
+        <v>9.459947167092128</v>
       </c>
       <c r="L6">
-        <v>9.658802631470692</v>
+        <v>6.399067727979626</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.94741927804918</v>
+        <v>13.37674173722018</v>
       </c>
       <c r="O6">
-        <v>25.54402946038891</v>
+        <v>16.33317070125214</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.09812961542908</v>
+        <v>12.58091904769615</v>
       </c>
       <c r="C7">
-        <v>8.980912950407834</v>
+        <v>6.454895945128827</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.14815520385745</v>
+        <v>7.973843697463884</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.666707331985452</v>
+        <v>2.115166974242032</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.566807064527145</v>
+        <v>9.66291781721408</v>
       </c>
       <c r="L7">
-        <v>9.661331118989665</v>
+        <v>6.455678273689645</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.92830672837815</v>
+        <v>13.31637478069723</v>
       </c>
       <c r="O7">
-        <v>25.51392592523742</v>
+        <v>16.29486227671483</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.37014333050569</v>
+        <v>13.68440182605445</v>
       </c>
       <c r="C8">
-        <v>8.969309584695427</v>
+        <v>6.434549341190013</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.13604246517948</v>
+        <v>8.156100154406039</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.664492032959779</v>
+        <v>2.109372676007875</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.754378758633685</v>
+        <v>10.51095341440842</v>
       </c>
       <c r="L8">
-        <v>9.676110070191136</v>
+        <v>6.706666478081227</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.84795071205416</v>
+        <v>13.05658995806088</v>
       </c>
       <c r="O8">
-        <v>25.39166840439112</v>
+        <v>16.15289180838211</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.90706020814482</v>
+        <v>15.68915101723054</v>
       </c>
       <c r="C9">
-        <v>8.950298858805583</v>
+        <v>6.402718321217014</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.13022707364345</v>
+        <v>8.54132946158977</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.660583896476795</v>
+        <v>2.098678004560858</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.12366755383578</v>
+        <v>12.00179799490013</v>
       </c>
       <c r="L9">
-        <v>9.717942006504439</v>
+        <v>7.198774937985064</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.70460021968191</v>
+        <v>12.56949793584901</v>
       </c>
       <c r="O9">
-        <v>25.19004670135918</v>
+        <v>15.98069730006776</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.29973486799456</v>
+        <v>17.12268311254789</v>
       </c>
       <c r="C10">
-        <v>8.938591603483975</v>
+        <v>6.384362983751628</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.13684072461828</v>
+        <v>8.839535276546169</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.657975700330422</v>
+        <v>2.09119638964375</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.39333471308695</v>
+        <v>12.9922413307221</v>
       </c>
       <c r="L10">
-        <v>9.756342715726884</v>
+        <v>7.556839434152995</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.60786723400752</v>
+        <v>12.22386264251381</v>
       </c>
       <c r="O10">
-        <v>25.06523720516713</v>
+        <v>15.92750020775249</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.47718181049824</v>
+        <v>17.74080083998535</v>
       </c>
       <c r="C11">
-        <v>8.933751698836563</v>
+        <v>6.377132497056315</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.14219845734109</v>
+        <v>8.978110685879582</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.656845718019391</v>
+        <v>2.087867060879688</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.51513619437518</v>
+        <v>13.42021120127579</v>
       </c>
       <c r="L11">
-        <v>9.775435984429919</v>
+        <v>7.71835281649332</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.56570690181917</v>
+        <v>12.06895588777579</v>
       </c>
       <c r="O11">
-        <v>25.01353925808382</v>
+        <v>15.92113711292368</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.54414249121511</v>
+        <v>17.97003337454039</v>
       </c>
       <c r="C12">
-        <v>8.931988427671051</v>
+        <v>6.374557992962735</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.14456343813958</v>
+        <v>9.030974447065773</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.656425903926239</v>
+        <v>2.086616347665289</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.56109240378893</v>
+        <v>13.57904419486232</v>
       </c>
       <c r="L12">
-        <v>9.782895819969587</v>
+        <v>7.779272114719726</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.55000567867084</v>
+        <v>12.01060299563898</v>
       </c>
       <c r="O12">
-        <v>24.99469431807761</v>
+        <v>15.92145479031714</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.52973274473445</v>
+        <v>17.92087820376256</v>
       </c>
       <c r="C13">
-        <v>8.932365094545041</v>
+        <v>6.375105142796365</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.14403917722617</v>
+        <v>9.019572507390835</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.656515959404194</v>
+        <v>2.086885275321322</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.55120300777826</v>
+        <v>13.54497997742454</v>
       </c>
       <c r="L13">
-        <v>9.781279064201973</v>
+        <v>7.766163484770628</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.55337549615906</v>
+        <v>12.02315713591609</v>
       </c>
       <c r="O13">
-        <v>24.99872033312767</v>
+        <v>15.92126246395519</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.48269576843666</v>
+        <v>17.75975652395832</v>
       </c>
       <c r="C14">
-        <v>8.933605242716499</v>
+        <v>6.376917398414897</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.14238629975818</v>
+        <v>8.982452213092175</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.656811017833586</v>
+        <v>2.087763966613943</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.51892062877226</v>
+        <v>13.43334309790118</v>
       </c>
       <c r="L14">
-        <v>9.776045131192824</v>
+        <v>7.723369777022214</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.56440986893266</v>
+        <v>12.06414917088604</v>
       </c>
       <c r="O14">
-        <v>25.01197419469481</v>
+        <v>15.92110765074039</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.45385183702013</v>
+        <v>17.66043680683363</v>
       </c>
       <c r="C15">
-        <v>8.934373909011098</v>
+        <v>6.378048832313941</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.14141758400796</v>
+        <v>8.959764614006312</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.656992801488423</v>
+        <v>2.088303477632494</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.49912372284374</v>
+        <v>13.36454227973211</v>
       </c>
       <c r="L15">
-        <v>9.772868978045167</v>
+        <v>7.697124603543087</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.57120308388792</v>
+        <v>12.08929711029193</v>
       </c>
       <c r="O15">
-        <v>25.0201879381905</v>
+        <v>15.92137285648052</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.28810891527522</v>
+        <v>17.08160802942168</v>
       </c>
       <c r="C16">
-        <v>8.938917647110713</v>
+        <v>6.384858252290584</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.13653771660309</v>
+        <v>8.830535065337253</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.658050680913246</v>
+        <v>2.091415407645437</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.38535353246765</v>
+        <v>12.96381941048558</v>
       </c>
       <c r="L16">
-        <v>9.75512728171808</v>
+        <v>7.54625256353745</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.61065951517022</v>
+        <v>12.23403063716835</v>
       </c>
       <c r="O16">
-        <v>25.06871812331263</v>
+        <v>15.92828878332944</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.18608132042714</v>
+        <v>16.71784424097495</v>
       </c>
       <c r="C17">
-        <v>8.941829248275713</v>
+        <v>6.38932407590648</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.1341446261789</v>
+        <v>8.751981823057802</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.658714098742006</v>
+        <v>2.093343021506739</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.31530558105349</v>
+        <v>12.71221498109066</v>
       </c>
       <c r="L17">
-        <v>9.744656667251412</v>
+        <v>7.453312155836092</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.63533620139749</v>
+        <v>12.32339636429252</v>
       </c>
       <c r="O17">
-        <v>25.09979174319633</v>
+        <v>15.93721445815856</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.12729012526843</v>
+        <v>16.50541298934037</v>
       </c>
       <c r="C18">
-        <v>8.943549670055527</v>
+        <v>6.391997902517732</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.13298941208743</v>
+        <v>8.707076743858781</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.659100999402662</v>
+        <v>2.094458747693564</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.27493624577866</v>
+        <v>12.56537127397039</v>
       </c>
       <c r="L18">
-        <v>9.73878741584541</v>
+        <v>7.399728479596559</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.64970321350471</v>
+        <v>12.37501768265176</v>
       </c>
       <c r="O18">
-        <v>25.11814238347641</v>
+        <v>15.94401721875762</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.10736796253965</v>
+        <v>16.43293551879142</v>
       </c>
       <c r="C19">
-        <v>8.944140043158397</v>
+        <v>6.392921208736638</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.13263632007497</v>
+        <v>8.691921163651362</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.659232912269347</v>
+        <v>2.094837736411146</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.26125551743118</v>
+        <v>12.51528664656588</v>
       </c>
       <c r="L19">
-        <v>9.736826612427848</v>
+        <v>7.381565656096083</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.65459749517295</v>
+        <v>12.39253445533108</v>
       </c>
       <c r="O19">
-        <v>25.12443762637491</v>
+        <v>15.94660225935894</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.19695394644563</v>
+        <v>16.75689872644163</v>
       </c>
       <c r="C20">
-        <v>8.941514571453579</v>
+        <v>6.388837775462711</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.13437648990539</v>
+        <v>8.760315550168842</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.658642926435427</v>
+        <v>2.093137102229602</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.3227708537319</v>
+        <v>12.73921877356627</v>
       </c>
       <c r="L20">
-        <v>9.745755457687784</v>
+        <v>7.46321929041365</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.63269136406951</v>
+        <v>12.31386060054819</v>
       </c>
       <c r="O20">
-        <v>25.09643442864646</v>
+        <v>15.9360904077399</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.49651853735697</v>
+        <v>17.80721264866303</v>
       </c>
       <c r="C21">
-        <v>8.933239097906021</v>
+        <v>6.376380635622311</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.14286268217031</v>
+        <v>8.993345049644056</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.656724132885305</v>
+        <v>2.087505606591074</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.52840761540905</v>
+        <v>13.46622104515254</v>
       </c>
       <c r="L21">
-        <v>9.777576265118981</v>
+        <v>7.735946232149236</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.56116165121279</v>
+        <v>12.05210071198573</v>
       </c>
       <c r="O21">
-        <v>25.00806133619305</v>
+        <v>15.92107779909677</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.69090573880504</v>
+        <v>18.46549699733878</v>
       </c>
       <c r="C22">
-        <v>8.928235505260952</v>
+        <v>6.369193660961157</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.1503671440467</v>
+        <v>9.147893061076275</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.655517202145496</v>
+        <v>2.083883251899658</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.66180925090377</v>
+        <v>13.92254446532432</v>
       </c>
       <c r="L22">
-        <v>9.799709433895016</v>
+        <v>7.912759975167112</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.51595098360948</v>
+        <v>11.88280071585054</v>
       </c>
       <c r="O22">
-        <v>24.95457153449928</v>
+        <v>15.92723976732773</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.58730594753765</v>
+        <v>18.11671598998865</v>
       </c>
       <c r="C23">
-        <v>8.930869086338991</v>
+        <v>6.372941249564574</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.14618330653797</v>
+        <v>9.06521200233791</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.656157065810643</v>
+        <v>2.085811465748022</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.59071469233229</v>
+        <v>13.68071035466626</v>
       </c>
       <c r="L23">
-        <v>9.787775642052475</v>
+        <v>7.818535254690738</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.53994041629375</v>
+        <v>11.97300631814356</v>
       </c>
       <c r="O23">
-        <v>24.9827290624802</v>
+        <v>15.92243511003985</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.19203884518529</v>
+        <v>16.73925247206598</v>
       </c>
       <c r="C24">
-        <v>8.941656691969897</v>
+        <v>6.389057300780078</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.13427097703652</v>
+        <v>8.756547071629351</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.658675086322128</v>
+        <v>2.093230174879472</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.31939610546063</v>
+        <v>12.72701719091907</v>
       </c>
       <c r="L24">
-        <v>9.745258225619157</v>
+        <v>7.458740741709851</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.63388653405962</v>
+        <v>12.31817095799567</v>
       </c>
       <c r="O24">
-        <v>25.09795075680209</v>
+        <v>15.93659339756622</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.76184708001262</v>
+        <v>15.14106949928818</v>
       </c>
       <c r="C25">
-        <v>8.955043297960549</v>
+        <v>6.410454637581489</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.12988413952323</v>
+        <v>8.434317798773828</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.661594750400462</v>
+        <v>2.101502837473172</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.02387443531649</v>
+        <v>11.61693770081257</v>
       </c>
       <c r="L25">
-        <v>9.705265833611969</v>
+        <v>7.06602920462062</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.74186619972813</v>
+        <v>12.6990164682379</v>
       </c>
       <c r="O25">
-        <v>25.24050086265823</v>
+        <v>16.01504148562853</v>
       </c>
     </row>
   </sheetData>
